--- a/导入模板.xlsx
+++ b/导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codebro\Downloads\googleMaiParser-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>路庆华</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>周慧芳</t>
-  </si>
-  <si>
-    <t>李剑</t>
   </si>
   <si>
     <t>华东理工大学</t>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,10 +401,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,50 +433,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
